--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -12,15 +12,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjQVnYeLqxQJpAAKyjRhbhNYX9SrQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="uvKq90NzKQVOe7IYqswHOP9F7GQ599ajGEueovAaNSA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -370,15 +370,6 @@
     <t>ST_FORCELEVOBS</t>
   </si>
   <si>
-    <t>ID_NUMRAP</t>
-  </si>
-  <si>
-    <t>ID_NUMRAPLIG</t>
-  </si>
-  <si>
-    <t>ST_CODRAP</t>
-  </si>
-  <si>
     <t>ST_TRAUTICRE</t>
   </si>
   <si>
@@ -391,6 +382,159 @@
     <t>DT_TRAUPD</t>
   </si>
   <si>
+    <t>TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>ACT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CLEN</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>EMP.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.TR.BTR.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CSV.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>TRAVAIL SUR MATRICULE ET EQUIPEMENT</t>
+  </si>
+  <si>
+    <t>ATTENTE REPONSE MOE</t>
+  </si>
+  <si>
+    <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>NSV.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>ACT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CLEA</t>
+  </si>
+  <si>
+    <t>EMP.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.TR.BTR.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CSV.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>NSV.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>ACT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>EMP.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.TR.BTR.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>CSV.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>NSV.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>ACT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>IMP.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>EMP.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>MAT.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>ORG.TR.BTR.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>CSV.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>NSV.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
     <t>CAS DE TEST (BTDOC)</t>
   </si>
   <si>
@@ -398,6 +542,24 @@
   </si>
   <si>
     <t>ID_ARC</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL DEMANDE 1000</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL REALISE 2000</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL DEMANDE 1001</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL REALISE 2001</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL DEMANDE 1002</t>
+  </si>
+  <si>
+    <t>MEMO DU TRAVAIL REALISE 2002</t>
   </si>
   <si>
     <t>CAS DE TEST (RELEVE_BT)</t>
@@ -431,11 +593,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -469,12 +633,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +679,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -556,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -587,16 +775,88 @@
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1898,8 +2158,38 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="1" max="1" width="16.5"/>
+    <col customWidth="1" min="2" max="2" width="9.5"/>
+    <col customWidth="1" min="3" max="3" width="11.5"/>
+    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="8.0"/>
+    <col customWidth="1" min="7" max="7" width="9.88"/>
+    <col customWidth="1" min="8" max="8" width="24.75"/>
+    <col customWidth="1" min="9" max="9" width="19.88"/>
+    <col customWidth="1" min="10" max="10" width="23.88"/>
+    <col customWidth="1" min="19" max="19" width="24.38"/>
+    <col customWidth="1" min="21" max="21" width="20.0"/>
+    <col customWidth="1" min="23" max="23" width="20.0"/>
+    <col customWidth="1" min="26" max="26" width="25.0"/>
+    <col customWidth="1" min="28" max="28" width="20.13"/>
+    <col customWidth="1" min="29" max="29" width="7.25"/>
+    <col customWidth="1" min="30" max="30" width="9.38"/>
+    <col customWidth="1" min="31" max="32" width="11.5"/>
+    <col customWidth="1" min="33" max="33" width="35.75"/>
+    <col customWidth="1" min="35" max="35" width="21.38"/>
+    <col customWidth="1" min="49" max="49" width="43.25"/>
+    <col customWidth="1" min="60" max="60" width="7.88"/>
+    <col customWidth="1" min="63" max="63" width="7.63"/>
+    <col customWidth="1" min="65" max="65" width="6.38"/>
+    <col customWidth="1" min="74" max="74" width="10.88"/>
+    <col customWidth="1" min="75" max="75" width="21.38"/>
+    <col customWidth="1" min="76" max="76" width="20.25"/>
+    <col customWidth="1" min="90" max="90" width="21.38"/>
+    <col customWidth="1" min="92" max="92" width="21.38"/>
+    <col customWidth="1" min="94" max="94" width="21.38"/>
+    <col customWidth="1" min="97" max="98" width="21.38"/>
+    <col customWidth="1" min="100" max="103" width="21.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2227,40 +2517,1315 @@
       <c r="DD1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="DE1" s="13" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="B2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2033.0</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="E2" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="F2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="O2" s="15">
+        <v>2000.0</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="AE2" s="28">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="AF2" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AL2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AM2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AN2" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AO2" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AP2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AQ2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AR2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AS2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AT2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AU2" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AY2" s="28">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="AZ2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BA2" s="28">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="BB2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BC2" s="28">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="BD2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BP2" s="28">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="BQ2" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BR2" s="28">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="BS2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT2" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="BU2" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY2" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="BZ2" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="CA2" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CB2" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="CC2" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CD2" s="28">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CQ2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU2" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="CV2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="DA2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD2" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1001.0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2033.0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="15">
+        <v>1001.0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2001.0</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AF3" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="AI3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ3" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AK3" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AL3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AM3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AN3" s="34">
+        <v>500.0</v>
+      </c>
+      <c r="AO3" s="34">
+        <v>500.0</v>
+      </c>
+      <c r="AP3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AQ3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AR3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AS3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AT3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AU3" s="34">
+        <v>1000.0</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="AY3" s="33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AZ3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BA3" s="33">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BB3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BC3" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="BD3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BP3" s="33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BQ3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BR3" s="33">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BS3" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="BT3" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BU3" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="BV3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY3" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BZ3" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="CA3" s="32">
+        <v>43467.0</v>
+      </c>
+      <c r="CB3" s="33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CC3" s="32">
+        <v>43467.0</v>
+      </c>
+      <c r="CD3" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="CE3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG3" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CQ3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU3" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="CV3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="DA3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD3" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1002.0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2033.0</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="35">
+        <v>1002.0</v>
+      </c>
+      <c r="O4" s="35">
+        <v>2002.0</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH4" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AI4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AL4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AM4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AN4" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AO4" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AP4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AQ4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AR4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AS4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AT4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AU4" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AV4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX4" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AY4" s="28">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="AZ4" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BA4" s="28">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="BB4" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BC4" s="28">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="BD4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF4" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO4" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BP4" s="33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BQ4" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BR4" s="33">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BS4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT4" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="BU4" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX4" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="BY4" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="BZ4" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="CA4" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CB4" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="CC4" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CD4" s="28">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CQ4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU4" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="CV4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="DA4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC4" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD4" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-    </row>
+      <c r="A5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1003.0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2033.0</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AI5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="AL5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AM5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AN5" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AO5" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="AP5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AQ5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AR5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AS5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AT5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AU5" s="19">
+        <v>4000.0</v>
+      </c>
+      <c r="AV5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX5" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="AY5" s="28">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="AZ5" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BA5" s="28">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="BB5" s="27">
+        <v>44958.0</v>
+      </c>
+      <c r="BC5" s="28">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="BD5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO5" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BP5" s="33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BQ5" s="32">
+        <v>43466.0</v>
+      </c>
+      <c r="BR5" s="33">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BS5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BT5" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="BU5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="BV5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY5" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="BZ5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="CA5" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CB5" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="CC5" s="27">
+        <v>43832.0</v>
+      </c>
+      <c r="CD5" s="28">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="CE5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CN5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CQ5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU5" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="CV5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CW5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="DA5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD5" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
     </row>
@@ -2891,9 +4456,7 @@
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
-    </row>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -3673,7 +5236,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3700,20 +5262,22 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="29.13"/>
+    <col customWidth="1" min="4" max="4" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>125</v>
+      <c r="C1" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -3739,25 +5303,91 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="39">
+        <v>2000.0</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1001.0</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="39">
+        <v>2001.0</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1002.0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="39">
+        <v>2002.0</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -6755,29 +8385,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>132</v>
+      <c r="C1" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -6799,25 +8429,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="41"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="41"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -9816,10 +11446,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -9847,25 +11477,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="41"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="41"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="192">
   <si>
     <t>Date</t>
   </si>
@@ -340,12 +340,12 @@
     <t>ID_TMPMOB</t>
   </si>
   <si>
+    <t>ST_HORRES</t>
+  </si>
+  <si>
     <t>ID_NUMGAM</t>
   </si>
   <si>
-    <t>ST_HORRES</t>
-  </si>
-  <si>
     <t>ST_LEVART</t>
   </si>
   <si>
@@ -385,6 +385,9 @@
     <t>TR.BTR.001.LEC.01</t>
   </si>
   <si>
+    <t>$NULL</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -409,9 +412,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>$NULL</t>
-  </si>
-  <si>
     <t>$NU</t>
   </si>
   <si>
@@ -445,12 +445,18 @@
     <t>TNR</t>
   </si>
   <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.LEC.01</t>
   </si>
   <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
     <t>TR.BTR.001.MAJ.01</t>
   </si>
   <si>
@@ -476,6 +482,9 @@
   </si>
   <si>
     <t>CSV.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.MAJ.01</t>
@@ -2525,38 +2534,38 @@
       <c r="B2" s="15">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="16">
-        <v>2033.0</v>
+      <c r="C2" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="19">
         <v>1.0</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N2" s="15">
         <v>1000.0</v>
@@ -2565,10 +2574,10 @@
         <v>2000.0</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>130</v>
@@ -2577,22 +2586,22 @@
         <v>131</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W2" s="22" t="s">
         <v>132</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Z2" s="23" t="s">
         <v>133</v>
@@ -2661,7 +2670,7 @@
         <v>4000.0</v>
       </c>
       <c r="AV2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AW2" s="22" t="s">
         <v>138</v>
@@ -2697,7 +2706,7 @@
         <v>137</v>
       </c>
       <c r="BH2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BI2" s="29" t="s">
         <v>137</v>
@@ -2706,13 +2715,13 @@
         <v>137</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BL2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN2" s="20" t="s">
         <v>140</v>
@@ -2732,20 +2741,20 @@
       <c r="BS2" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT2" s="25">
-        <v>1.0</v>
+      <c r="BT2" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="BU2" s="21">
         <v>4.0</v>
       </c>
       <c r="BV2" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BX2" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BY2" s="27">
         <v>44927.0</v>
@@ -2766,46 +2775,46 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CF2" s="22" t="s">
+      <c r="CH2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CG2" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH2" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI2" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="CJ2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CK2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CL2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CM2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CN2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CO2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CP2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CQ2" s="22" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="CR2" s="22" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="CS2" s="29" t="s">
         <v>137</v>
@@ -2813,8 +2822,8 @@
       <c r="CT2" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="CU2" s="31">
-        <v>3.0</v>
+      <c r="CU2" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="CV2" s="29" t="s">
         <v>137</v>
@@ -2829,7 +2838,7 @@
         <v>137</v>
       </c>
       <c r="CZ2" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="DA2" s="20" t="s">
         <v>140</v>
@@ -2846,43 +2855,43 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="16">
-        <v>2033.0</v>
+      <c r="C3" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" s="19">
         <v>1.0</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N3" s="15">
         <v>1001.0</v>
@@ -2891,43 +2900,43 @@
         <v>2001.0</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R3" s="22" t="s">
         <v>130</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>135</v>
@@ -2987,7 +2996,7 @@
         <v>1000.0</v>
       </c>
       <c r="AV3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AW3" s="22" t="s">
         <v>138</v>
@@ -3023,7 +3032,7 @@
         <v>137</v>
       </c>
       <c r="BH3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BI3" s="29" t="s">
         <v>137</v>
@@ -3032,13 +3041,13 @@
         <v>137</v>
       </c>
       <c r="BK3" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BL3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BM3" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN3" s="20" t="s">
         <v>140</v>
@@ -3058,20 +3067,20 @@
       <c r="BS3" s="34">
         <v>2.0</v>
       </c>
-      <c r="BT3" s="25">
-        <v>2.0</v>
+      <c r="BT3" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
       </c>
       <c r="BV3" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BY3" s="32">
         <v>43466.0</v>
@@ -3092,46 +3101,46 @@
         <v>0.75</v>
       </c>
       <c r="CE3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="CF3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CG3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI3" s="25" t="s">
-        <v>128</v>
-      </c>
       <c r="CJ3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CK3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CL3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CM3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CN3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CO3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CP3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="CQ3" s="22" t="s">
+      <c r="CQ3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="CR3" s="25" t="s">
-        <v>128</v>
+      <c r="CR3" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CS3" s="29" t="s">
         <v>137</v>
@@ -3139,8 +3148,8 @@
       <c r="CT3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="CU3" s="31">
-        <v>3.0</v>
+      <c r="CU3" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="CV3" s="29" t="s">
         <v>137</v>
@@ -3155,7 +3164,7 @@
         <v>137</v>
       </c>
       <c r="CZ3" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="DA3" s="20" t="s">
         <v>140</v>
@@ -3172,43 +3181,43 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="16">
-        <v>2033.0</v>
+      <c r="C4" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" s="19">
         <v>1.0</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N4" s="35">
         <v>1002.0</v>
@@ -3217,43 +3226,43 @@
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R4" s="22" t="s">
         <v>130</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>135</v>
@@ -3313,7 +3322,7 @@
         <v>4000.0</v>
       </c>
       <c r="AV4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AW4" s="22" t="s">
         <v>138</v>
@@ -3349,7 +3358,7 @@
         <v>137</v>
       </c>
       <c r="BH4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BI4" s="29" t="s">
         <v>137</v>
@@ -3358,13 +3367,13 @@
         <v>137</v>
       </c>
       <c r="BK4" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BL4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BM4" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN4" s="20" t="s">
         <v>140</v>
@@ -3384,20 +3393,20 @@
       <c r="BS4" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT4" s="25">
-        <v>1.0</v>
+      <c r="BT4" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="BU4" s="21">
         <v>4.0</v>
       </c>
       <c r="BV4" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BY4" s="27">
         <v>44927.0</v>
@@ -3418,46 +3427,46 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG4" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CF4" s="22" t="s">
+      <c r="CH4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI4" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CG4" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH4" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI4" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="CJ4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CK4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CL4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CM4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CN4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CO4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CP4" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CQ4" s="22" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="CR4" s="22" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="CS4" s="29" t="s">
         <v>137</v>
@@ -3465,8 +3474,8 @@
       <c r="CT4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="CU4" s="31">
-        <v>3.0</v>
+      <c r="CU4" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="CV4" s="29" t="s">
         <v>137</v>
@@ -3481,7 +3490,7 @@
         <v>137</v>
       </c>
       <c r="CZ4" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="DA4" s="20" t="s">
         <v>140</v>
@@ -3498,88 +3507,88 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="16">
-        <v>2033.0</v>
+      <c r="C5" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="19">
         <v>1.0</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC5" s="18" t="s">
         <v>135</v>
@@ -3639,7 +3648,7 @@
         <v>4000.0</v>
       </c>
       <c r="AV5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AW5" s="22" t="s">
         <v>138</v>
@@ -3675,7 +3684,7 @@
         <v>137</v>
       </c>
       <c r="BH5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BI5" s="29" t="s">
         <v>137</v>
@@ -3684,13 +3693,13 @@
         <v>137</v>
       </c>
       <c r="BK5" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BL5" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BM5" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN5" s="20" t="s">
         <v>140</v>
@@ -3710,20 +3719,20 @@
       <c r="BS5" s="19">
         <v>1.0</v>
       </c>
-      <c r="BT5" s="25">
-        <v>1.0</v>
+      <c r="BT5" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="BU5" s="21">
         <v>4.0</v>
       </c>
       <c r="BV5" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW5" s="29" t="s">
         <v>137</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BY5" s="27">
         <v>44927.0</v>
@@ -3744,46 +3753,46 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CF5" s="22" t="s">
+      <c r="CH5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CG5" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH5" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI5" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="CJ5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CK5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CL5" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CM5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CN5" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CO5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="CP5" s="29" t="s">
         <v>137</v>
       </c>
       <c r="CQ5" s="22" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="CR5" s="22" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="CS5" s="29" t="s">
         <v>137</v>
@@ -3791,8 +3800,8 @@
       <c r="CT5" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="CU5" s="31">
-        <v>3.0</v>
+      <c r="CU5" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="CV5" s="29" t="s">
         <v>137</v>
@@ -3807,7 +3816,7 @@
         <v>137</v>
       </c>
       <c r="CZ5" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="DA5" s="20" t="s">
         <v>140</v>
@@ -5268,16 +5277,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5310,10 +5319,10 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -5324,66 +5333,66 @@
         <v>2000.0</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" s="39">
         <v>1001.0</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="39">
         <v>2001.0</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" s="39">
         <v>1002.0</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B7" s="39">
         <v>2002.0</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -8386,28 +8395,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -11446,10 +11455,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -13,7 +13,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="uvKq90NzKQVOe7IYqswHOP9F7GQ599ajGEueovAaNSA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="N7rlKdgIXIWO1R55LmWIYClfMalyxsW9K838dL3C84c="/>
     </ext>
   </extLst>
 </workbook>
@@ -5396,7 +5396,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -8329,7 +8329,7 @@
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986">
       <c r="A986" s="2"/>
     </row>
     <row r="987">
@@ -8361,9 +8361,6 @@
     </row>
     <row r="996">
       <c r="A996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="2"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -433,7 +433,7 @@
     <t>TRAVAIL SUR MATRICULE ET EQUIPEMENT</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
@@ -830,7 +830,7 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -433,12 +433,12 @@
     <t>TRAVAIL SUR MATRICULE ET EQUIPEMENT</t>
   </si>
   <si>
+    <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
+  </si>
+  <si>
     <t>$TBD</t>
   </si>
   <si>
-    <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
-  </si>
-  <si>
     <t>$DATETIMESYS</t>
   </si>
   <si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>$null</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.LEC.01</t>
@@ -655,17 +658,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +697,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -753,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -835,6 +844,12 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -850,19 +865,16 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2630,8 +2642,8 @@
       <c r="AH2" s="27">
         <v>44958.0</v>
       </c>
-      <c r="AI2" s="29" t="s">
-        <v>137</v>
+      <c r="AI2" s="25">
+        <v>0.0</v>
       </c>
       <c r="AJ2" s="19">
         <v>4.0</v>
@@ -2673,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="AW2" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX2" s="27">
         <v>44958.0</v>
@@ -2694,31 +2706,31 @@
         <v>0.6145833333333334</v>
       </c>
       <c r="BD2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BF2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="BG2" s="29" t="s">
-        <v>137</v>
+      <c r="BG2" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="BH2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BI2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BJ2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BK2" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BL2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM2" s="22" t="s">
         <v>129</v>
@@ -2750,11 +2762,11 @@
       <c r="BV2" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="BW2" s="29" t="s">
-        <v>137</v>
+      <c r="BW2" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="BX2" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BY2" s="27">
         <v>44927.0</v>
@@ -2796,19 +2808,19 @@
         <v>121</v>
       </c>
       <c r="CL2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CN2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CO2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CP2" s="29" t="s">
-        <v>137</v>
+      <c r="CP2" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CQ2" s="22" t="s">
         <v>142</v>
@@ -2817,25 +2829,25 @@
         <v>121</v>
       </c>
       <c r="CS2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CT2" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU2" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV2" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW2" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX2" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY2" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="CU2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY2" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="CZ2" s="22" t="s">
         <v>121</v>
@@ -2855,7 +2867,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
@@ -2876,16 +2888,16 @@
         <v>124</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>124</v>
@@ -2909,19 +2921,19 @@
         <v>130</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X3" s="22" t="s">
         <v>121</v>
@@ -2930,121 +2942,121 @@
         <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="35">
         <v>0.5</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AF3" s="36">
         <v>1.0</v>
       </c>
       <c r="AG3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AH3" s="32">
+      <c r="AH3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="AI3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ3" s="34">
+      <c r="AI3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" s="36">
         <v>1.0</v>
       </c>
-      <c r="AK3" s="34">
+      <c r="AK3" s="36">
         <v>1.0</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AL3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AM3" s="34">
+      <c r="AM3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AN3" s="34">
+      <c r="AN3" s="36">
         <v>500.0</v>
       </c>
-      <c r="AO3" s="34">
+      <c r="AO3" s="36">
         <v>500.0</v>
       </c>
-      <c r="AP3" s="34">
+      <c r="AP3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AQ3" s="34">
+      <c r="AQ3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AR3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AS3" s="34">
+      <c r="AS3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AT3" s="34">
+      <c r="AT3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AU3" s="34">
+      <c r="AU3" s="36">
         <v>1000.0</v>
       </c>
       <c r="AV3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="AW3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" s="34">
+        <v>43466.0</v>
+      </c>
+      <c r="AY3" s="35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AZ3" s="34">
+        <v>43466.0</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BB3" s="34">
+        <v>43466.0</v>
+      </c>
+      <c r="BC3" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="BD3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AX3" s="32">
-        <v>43466.0</v>
-      </c>
-      <c r="AY3" s="33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AZ3" s="32">
-        <v>43466.0</v>
-      </c>
-      <c r="BA3" s="33">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="BB3" s="32">
-        <v>43466.0</v>
-      </c>
-      <c r="BC3" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="BD3" s="29" t="s">
-        <v>137</v>
-      </c>
       <c r="BE3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BF3" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="BG3" s="29" t="s">
-        <v>137</v>
+      <c r="BG3" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="BH3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BI3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BJ3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BK3" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BL3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM3" s="22" t="s">
         <v>129</v>
@@ -3052,23 +3064,23 @@
       <c r="BN3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BO3" s="32">
+      <c r="BO3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ3" s="32">
+      <c r="BQ3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR3" s="33">
+      <c r="BR3" s="35">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BS3" s="34">
+      <c r="BS3" s="36">
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
@@ -3076,28 +3088,28 @@
       <c r="BV3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BW3" s="29" t="s">
-        <v>137</v>
+      <c r="BW3" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY3" s="32">
+        <v>156</v>
+      </c>
+      <c r="BY3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BZ3" s="33">
+      <c r="BZ3" s="35">
         <v>0.5</v>
       </c>
-      <c r="CA3" s="32">
+      <c r="CA3" s="34">
         <v>43467.0</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="CC3" s="32">
+      <c r="CC3" s="34">
         <v>43467.0</v>
       </c>
-      <c r="CD3" s="33">
+      <c r="CD3" s="35">
         <v>0.75</v>
       </c>
       <c r="CE3" s="22" t="s">
@@ -3122,19 +3134,19 @@
         <v>121</v>
       </c>
       <c r="CL3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CN3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CO3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CP3" s="29" t="s">
-        <v>137</v>
+      <c r="CP3" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CQ3" s="25" t="s">
         <v>129</v>
@@ -3143,25 +3155,25 @@
         <v>121</v>
       </c>
       <c r="CS3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CT3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU3" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY3" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="CU3" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY3" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="CZ3" s="22" t="s">
         <v>121</v>
@@ -3181,7 +3193,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
@@ -3202,13 +3214,13 @@
         <v>124</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>128</v>
@@ -3219,10 +3231,10 @@
       <c r="M4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="37">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="37">
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -3235,19 +3247,19 @@
         <v>130</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>121</v>
@@ -3256,13 +3268,13 @@
         <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>135</v>
@@ -3282,8 +3294,8 @@
       <c r="AH4" s="27">
         <v>44958.0</v>
       </c>
-      <c r="AI4" s="29" t="s">
-        <v>137</v>
+      <c r="AI4" s="25">
+        <v>0.0</v>
       </c>
       <c r="AJ4" s="19">
         <v>4.0</v>
@@ -3325,7 +3337,7 @@
         <v>121</v>
       </c>
       <c r="AW4" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX4" s="27">
         <v>44958.0</v>
@@ -3346,31 +3358,31 @@
         <v>0.6145833333333334</v>
       </c>
       <c r="BD4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BF4" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="BG4" s="29" t="s">
-        <v>137</v>
+      <c r="BG4" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="BH4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BI4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BJ4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BK4" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BL4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM4" s="22" t="s">
         <v>129</v>
@@ -3378,16 +3390,16 @@
       <c r="BN4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BO4" s="32">
+      <c r="BO4" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP4" s="33">
+      <c r="BP4" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ4" s="32">
+      <c r="BQ4" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR4" s="33">
+      <c r="BR4" s="35">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS4" s="19">
@@ -3402,11 +3414,11 @@
       <c r="BV4" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="BW4" s="29" t="s">
-        <v>137</v>
+      <c r="BW4" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BY4" s="27">
         <v>44927.0</v>
@@ -3448,19 +3460,19 @@
         <v>121</v>
       </c>
       <c r="CL4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CN4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CO4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CP4" s="29" t="s">
-        <v>137</v>
+      <c r="CP4" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CQ4" s="22" t="s">
         <v>142</v>
@@ -3469,25 +3481,25 @@
         <v>121</v>
       </c>
       <c r="CS4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CT4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU4" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX4" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="CU4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY4" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="CZ4" s="22" t="s">
         <v>121</v>
@@ -3507,7 +3519,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
@@ -3528,16 +3540,16 @@
         <v>124</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>124</v>
@@ -3561,19 +3573,19 @@
         <v>130</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X5" s="22" t="s">
         <v>121</v>
@@ -3582,13 +3594,13 @@
         <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC5" s="18" t="s">
         <v>135</v>
@@ -3608,8 +3620,8 @@
       <c r="AH5" s="27">
         <v>44958.0</v>
       </c>
-      <c r="AI5" s="29" t="s">
-        <v>137</v>
+      <c r="AI5" s="25">
+        <v>0.0</v>
       </c>
       <c r="AJ5" s="19">
         <v>4.0</v>
@@ -3651,7 +3663,7 @@
         <v>121</v>
       </c>
       <c r="AW5" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX5" s="27">
         <v>44958.0</v>
@@ -3672,31 +3684,31 @@
         <v>0.6145833333333334</v>
       </c>
       <c r="BD5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BF5" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="BG5" s="29" t="s">
-        <v>137</v>
+      <c r="BG5" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="BH5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BI5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BJ5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BK5" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BL5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM5" s="22" t="s">
         <v>129</v>
@@ -3704,16 +3716,16 @@
       <c r="BN5" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BO5" s="32">
+      <c r="BO5" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP5" s="33">
+      <c r="BP5" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ5" s="32">
+      <c r="BQ5" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR5" s="33">
+      <c r="BR5" s="35">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS5" s="19">
@@ -3728,11 +3740,11 @@
       <c r="BV5" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="BW5" s="29" t="s">
-        <v>137</v>
+      <c r="BW5" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BY5" s="27">
         <v>44927.0</v>
@@ -3774,19 +3786,19 @@
         <v>121</v>
       </c>
       <c r="CL5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CN5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CO5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CP5" s="29" t="s">
-        <v>137</v>
+      <c r="CP5" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CQ5" s="22" t="s">
         <v>142</v>
@@ -3795,25 +3807,25 @@
         <v>121</v>
       </c>
       <c r="CS5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CT5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CW5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY5" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="CU5" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY5" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="CZ5" s="22" t="s">
         <v>121</v>
@@ -5276,17 +5288,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>176</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5315,13 +5327,13 @@
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="41">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5329,69 +5341,69 @@
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <v>2000.0</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="39">
+        <v>146</v>
+      </c>
+      <c r="B4" s="41">
         <v>1001.0</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="39">
+        <v>146</v>
+      </c>
+      <c r="B5" s="41">
         <v>2001.0</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="39">
+        <v>157</v>
+      </c>
+      <c r="B6" s="41">
         <v>1002.0</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="39">
+        <v>157</v>
+      </c>
+      <c r="B7" s="41">
         <v>2002.0</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8391,29 +8403,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="40" t="s">
         <v>189</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -8435,25 +8447,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="41"/>
+      <c r="A2" s="42"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -11452,10 +11464,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -11483,25 +11495,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="41"/>
+      <c r="A2" s="42"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -436,25 +436,25 @@
     <t>TRAVAIL REALISE SUR MATRICULE ET EQUIPEMENT</t>
   </si>
   <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>$null</t>
+  </si>
+  <si>
+    <t>NSV.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
     <t>$TBD</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>$null</t>
-  </si>
-  <si>
-    <t>NSV.TR.BTR.001.LEC.01</t>
   </si>
   <si>
     <t>Sécurité</t>
@@ -668,7 +668,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +703,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -838,17 +844,20 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2705,38 +2714,38 @@
       <c r="BC2" s="28">
         <v>0.6145833333333334</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="BE2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG2" s="31" t="s">
+      <c r="BG2" s="29" t="s">
         <v>121</v>
       </c>
       <c r="BH2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ2" s="29" t="s">
-        <v>138</v>
+      <c r="BI2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="BK2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="BL2" s="29" t="s">
-        <v>138</v>
+      <c r="BL2" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="BM2" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BN2" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BO2" s="27">
         <v>44958.0</v>
@@ -2754,19 +2763,19 @@
         <v>1.0</v>
       </c>
       <c r="BT2" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="21">
         <v>4.0</v>
       </c>
       <c r="BV2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BW2" s="32" t="s">
+      <c r="BX2" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="BX2" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="BY2" s="27">
         <v>44927.0</v>
@@ -2807,14 +2816,14 @@
       <c r="CK2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL2" s="29" t="s">
-        <v>138</v>
+      <c r="CL2" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="CM2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN2" s="29" t="s">
-        <v>138</v>
+      <c r="CN2" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="CO2" s="22" t="s">
         <v>121</v>
@@ -2823,18 +2832,18 @@
         <v>121</v>
       </c>
       <c r="CQ2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU2" s="33" t="s">
+      <c r="CS2" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU2" s="34" t="s">
         <v>145</v>
       </c>
       <c r="CV2" s="14" t="s">
@@ -2853,16 +2862,16 @@
         <v>121</v>
       </c>
       <c r="DA2" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB2" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DC2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DD2" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2953,58 +2962,58 @@
       <c r="AC3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="36">
         <v>0.5</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AF3" s="37">
         <v>1.0</v>
       </c>
       <c r="AG3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="35">
         <v>43466.0</v>
       </c>
       <c r="AI3" s="25">
         <v>0.0</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AJ3" s="37">
         <v>1.0</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AK3" s="37">
         <v>1.0</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AL3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AM3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AN3" s="37">
         <v>500.0</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AO3" s="37">
         <v>500.0</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AP3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AQ3" s="36">
+      <c r="AQ3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AR3" s="36">
+      <c r="AR3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AS3" s="36">
+      <c r="AS3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AT3" s="36">
+      <c r="AT3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AU3" s="36">
+      <c r="AU3" s="37">
         <v>1000.0</v>
       </c>
       <c r="AV3" s="22" t="s">
@@ -3013,70 +3022,70 @@
       <c r="AW3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AX3" s="34">
+      <c r="AX3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="AY3" s="35">
+      <c r="AY3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BA3" s="35">
+      <c r="BA3" s="36">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BB3" s="34">
+      <c r="BB3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BC3" s="35">
+      <c r="BC3" s="36">
         <v>0.375</v>
       </c>
-      <c r="BD3" s="29" t="s">
+      <c r="BD3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="BE3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF3" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG3" s="31" t="s">
+      <c r="BG3" s="29" t="s">
         <v>121</v>
       </c>
       <c r="BH3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ3" s="29" t="s">
-        <v>138</v>
+      <c r="BI3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="BK3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="BL3" s="29" t="s">
-        <v>138</v>
+      <c r="BL3" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="BM3" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BN3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO3" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP3" s="35">
+      <c r="BP3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ3" s="34">
+      <c r="BQ3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR3" s="35">
+      <c r="BR3" s="36">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BS3" s="36">
+      <c r="BS3" s="37">
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
@@ -3088,28 +3097,28 @@
       <c r="BV3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BW3" s="32" t="s">
-        <v>143</v>
+      <c r="BW3" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="BX3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="BY3" s="34">
+      <c r="BY3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BZ3" s="35">
+      <c r="BZ3" s="36">
         <v>0.5</v>
       </c>
-      <c r="CA3" s="34">
+      <c r="CA3" s="35">
         <v>43467.0</v>
       </c>
-      <c r="CB3" s="35">
+      <c r="CB3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="CC3" s="34">
+      <c r="CC3" s="35">
         <v>43467.0</v>
       </c>
-      <c r="CD3" s="35">
+      <c r="CD3" s="36">
         <v>0.75</v>
       </c>
       <c r="CE3" s="22" t="s">
@@ -3119,7 +3128,7 @@
         <v>121</v>
       </c>
       <c r="CG3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CH3" s="22" t="s">
         <v>121</v>
@@ -3133,14 +3142,14 @@
       <c r="CK3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL3" s="29" t="s">
-        <v>138</v>
+      <c r="CL3" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="CM3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN3" s="29" t="s">
-        <v>138</v>
+      <c r="CN3" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="CO3" s="22" t="s">
         <v>121</v>
@@ -3154,13 +3163,13 @@
       <c r="CR3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU3" s="33" t="s">
+      <c r="CS3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU3" s="34" t="s">
         <v>145</v>
       </c>
       <c r="CV3" s="14" t="s">
@@ -3179,16 +3188,16 @@
         <v>121</v>
       </c>
       <c r="DA3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DC3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DD3" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -3231,10 +3240,10 @@
       <c r="M4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="38">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="38">
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -3357,65 +3366,65 @@
       <c r="BC4" s="28">
         <v>0.6145833333333334</v>
       </c>
-      <c r="BD4" s="29" t="s">
+      <c r="BD4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF4" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="BE4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF4" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" s="29" t="s">
         <v>121</v>
       </c>
       <c r="BH4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ4" s="29" t="s">
-        <v>138</v>
+      <c r="BI4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ4" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="BK4" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="BL4" s="29" t="s">
-        <v>138</v>
+      <c r="BL4" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="BM4" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BN4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO4" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO4" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP4" s="35">
+      <c r="BP4" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ4" s="34">
+      <c r="BQ4" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR4" s="35">
+      <c r="BR4" s="36">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS4" s="19">
         <v>1.0</v>
       </c>
       <c r="BT4" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU4" s="21">
         <v>4.0</v>
       </c>
       <c r="BV4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW4" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="BW4" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="BX4" s="25" t="s">
         <v>165</v>
@@ -3459,14 +3468,14 @@
       <c r="CK4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL4" s="29" t="s">
-        <v>138</v>
+      <c r="CL4" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="CM4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN4" s="29" t="s">
-        <v>138</v>
+      <c r="CN4" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="CO4" s="22" t="s">
         <v>121</v>
@@ -3475,18 +3484,18 @@
         <v>121</v>
       </c>
       <c r="CQ4" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU4" s="33" t="s">
+      <c r="CS4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU4" s="34" t="s">
         <v>145</v>
       </c>
       <c r="CV4" s="14" t="s">
@@ -3505,16 +3514,16 @@
         <v>121</v>
       </c>
       <c r="DA4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DC4" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DD4" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -3683,65 +3692,65 @@
       <c r="BC5" s="28">
         <v>0.6145833333333334</v>
       </c>
-      <c r="BD5" s="29" t="s">
+      <c r="BD5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF5" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="BE5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF5" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="29" t="s">
         <v>121</v>
       </c>
       <c r="BH5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ5" s="29" t="s">
-        <v>138</v>
+      <c r="BI5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ5" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="BK5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="BL5" s="29" t="s">
-        <v>138</v>
+      <c r="BL5" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="BM5" s="22" t="s">
         <v>129</v>
       </c>
       <c r="BN5" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO5" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO5" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP5" s="35">
+      <c r="BP5" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ5" s="34">
+      <c r="BQ5" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR5" s="35">
+      <c r="BR5" s="36">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS5" s="19">
         <v>1.0</v>
       </c>
       <c r="BT5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU5" s="21">
         <v>4.0</v>
       </c>
       <c r="BV5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW5" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="BW5" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="BX5" s="25" t="s">
         <v>174</v>
@@ -3785,14 +3794,14 @@
       <c r="CK5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CL5" s="29" t="s">
-        <v>138</v>
+      <c r="CL5" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="CM5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN5" s="29" t="s">
-        <v>138</v>
+      <c r="CN5" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="CO5" s="22" t="s">
         <v>121</v>
@@ -3801,18 +3810,18 @@
         <v>121</v>
       </c>
       <c r="CQ5" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU5" s="33" t="s">
+      <c r="CS5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU5" s="34" t="s">
         <v>145</v>
       </c>
       <c r="CV5" s="14" t="s">
@@ -3831,16 +3840,16 @@
         <v>121</v>
       </c>
       <c r="DA5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DC5" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DD5" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -5288,16 +5297,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>177</v>
       </c>
       <c r="E1" s="13"/>
@@ -5327,13 +5336,13 @@
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5341,13 +5350,13 @@
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="42">
         <v>2000.0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5355,13 +5364,13 @@
       <c r="A4" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="42">
         <v>1001.0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5369,13 +5378,13 @@
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="42">
         <v>2001.0</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5383,13 +5392,13 @@
       <c r="A6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="42">
         <v>1002.0</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5397,13 +5406,13 @@
       <c r="A7" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="42">
         <v>2002.0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8403,28 +8412,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>190</v>
       </c>
       <c r="I1" s="13"/>
@@ -8447,25 +8456,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -11495,25 +11504,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="192">
   <si>
     <t>Date</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>$null</t>
   </si>
   <si>
     <t>NSV.TR.BTR.001.LEC.01</t>
@@ -2772,10 +2769,10 @@
         <v>141</v>
       </c>
       <c r="BW2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX2" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="BX2" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="BY2" s="27">
         <v>44927.0</v>
@@ -2823,7 +2820,7 @@
         <v>121</v>
       </c>
       <c r="CN2" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CO2" s="22" t="s">
         <v>121</v>
@@ -2844,7 +2841,7 @@
         <v>121</v>
       </c>
       <c r="CU2" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CV2" s="14" t="s">
         <v>121</v>
@@ -2876,7 +2873,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
@@ -2897,16 +2894,16 @@
         <v>124</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>124</v>
@@ -2930,19 +2927,19 @@
         <v>130</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X3" s="22" t="s">
         <v>121</v>
@@ -2951,13 +2948,13 @@
         <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>135</v>
@@ -3089,7 +3086,7 @@
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
@@ -3098,10 +3095,10 @@
         <v>129</v>
       </c>
       <c r="BW3" s="31" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BY3" s="35">
         <v>43466.0</v>
@@ -3149,7 +3146,7 @@
         <v>121</v>
       </c>
       <c r="CN3" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CO3" s="22" t="s">
         <v>121</v>
@@ -3170,7 +3167,7 @@
         <v>121</v>
       </c>
       <c r="CU3" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CV3" s="14" t="s">
         <v>121</v>
@@ -3202,7 +3199,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
@@ -3223,13 +3220,13 @@
         <v>124</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>160</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>128</v>
@@ -3256,19 +3253,19 @@
         <v>130</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>121</v>
@@ -3277,13 +3274,13 @@
         <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>135</v>
@@ -3424,10 +3421,10 @@
         <v>141</v>
       </c>
       <c r="BW4" s="31" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BY4" s="27">
         <v>44927.0</v>
@@ -3475,7 +3472,7 @@
         <v>121</v>
       </c>
       <c r="CN4" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CO4" s="22" t="s">
         <v>121</v>
@@ -3496,7 +3493,7 @@
         <v>121</v>
       </c>
       <c r="CU4" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CV4" s="14" t="s">
         <v>121</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
@@ -3549,16 +3546,16 @@
         <v>124</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="K5" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>124</v>
@@ -3582,19 +3579,19 @@
         <v>130</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X5" s="22" t="s">
         <v>121</v>
@@ -3603,13 +3600,13 @@
         <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC5" s="18" t="s">
         <v>135</v>
@@ -3750,10 +3747,10 @@
         <v>141</v>
       </c>
       <c r="BW5" s="31" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BY5" s="27">
         <v>44927.0</v>
@@ -3801,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="CN5" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CO5" s="22" t="s">
         <v>121</v>
@@ -3822,7 +3819,7 @@
         <v>121</v>
       </c>
       <c r="CU5" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CV5" s="14" t="s">
         <v>121</v>
@@ -5298,16 +5295,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5340,7 +5337,7 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>121</v>
@@ -5354,7 +5351,7 @@
         <v>2000.0</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>121</v>
@@ -5362,13 +5359,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="42">
         <v>1001.0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>121</v>
@@ -5376,13 +5373,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="42">
         <v>2001.0</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>121</v>
@@ -5390,13 +5387,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="42">
         <v>1002.0</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>121</v>
@@ -5404,13 +5401,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="42">
         <v>2002.0</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>121</v>
@@ -8413,28 +8410,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -11473,10 +11470,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>NSV.TR.BTR.001.LEC.01</t>
-  </si>
-  <si>
-    <t>$TBD</t>
   </si>
   <si>
     <t>Sécurité</t>
@@ -765,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -849,9 +846,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2819,8 +2813,8 @@
       <c r="CM2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN2" s="32" t="s">
-        <v>143</v>
+      <c r="CN2" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CO2" s="22" t="s">
         <v>121</v>
@@ -2834,14 +2828,14 @@
       <c r="CR2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS2" s="33" t="s">
+      <c r="CS2" s="32" t="s">
         <v>121</v>
       </c>
       <c r="CT2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU2" s="34" t="s">
-        <v>144</v>
+      <c r="CU2" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="CV2" s="14" t="s">
         <v>121</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
@@ -2894,16 +2888,16 @@
         <v>124</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>149</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>124</v>
@@ -2927,19 +2921,19 @@
         <v>130</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X3" s="22" t="s">
         <v>121</v>
@@ -2948,69 +2942,69 @@
         <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AE3" s="35">
         <v>0.5</v>
       </c>
-      <c r="AF3" s="37">
+      <c r="AF3" s="36">
         <v>1.0</v>
       </c>
       <c r="AG3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AH3" s="34">
         <v>43466.0</v>
       </c>
       <c r="AI3" s="25">
         <v>0.0</v>
       </c>
-      <c r="AJ3" s="37">
+      <c r="AJ3" s="36">
         <v>1.0</v>
       </c>
-      <c r="AK3" s="37">
+      <c r="AK3" s="36">
         <v>1.0</v>
       </c>
-      <c r="AL3" s="37">
+      <c r="AL3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AM3" s="37">
+      <c r="AM3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AN3" s="37">
+      <c r="AN3" s="36">
         <v>500.0</v>
       </c>
-      <c r="AO3" s="37">
+      <c r="AO3" s="36">
         <v>500.0</v>
       </c>
-      <c r="AP3" s="37">
+      <c r="AP3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AQ3" s="37">
+      <c r="AQ3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AR3" s="37">
+      <c r="AR3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AS3" s="37">
+      <c r="AS3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AT3" s="37">
+      <c r="AT3" s="36">
         <v>1000.0</v>
       </c>
-      <c r="AU3" s="37">
+      <c r="AU3" s="36">
         <v>1000.0</v>
       </c>
       <c r="AV3" s="22" t="s">
@@ -3019,22 +3013,22 @@
       <c r="AW3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AX3" s="35">
+      <c r="AX3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="AY3" s="36">
+      <c r="AY3" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AZ3" s="35">
+      <c r="AZ3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BA3" s="36">
+      <c r="BA3" s="35">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BB3" s="35">
+      <c r="BB3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BC3" s="36">
+      <c r="BC3" s="35">
         <v>0.375</v>
       </c>
       <c r="BD3" s="22" t="s">
@@ -3070,23 +3064,23 @@
       <c r="BN3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="BO3" s="35">
+      <c r="BO3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP3" s="36">
+      <c r="BP3" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ3" s="35">
+      <c r="BQ3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR3" s="36">
+      <c r="BR3" s="35">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BS3" s="37">
+      <c r="BS3" s="36">
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
@@ -3098,24 +3092,24 @@
         <v>121</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY3" s="35">
+        <v>154</v>
+      </c>
+      <c r="BY3" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BZ3" s="36">
+      <c r="BZ3" s="35">
         <v>0.5</v>
       </c>
-      <c r="CA3" s="35">
+      <c r="CA3" s="34">
         <v>43467.0</v>
       </c>
-      <c r="CB3" s="36">
+      <c r="CB3" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="CC3" s="35">
+      <c r="CC3" s="34">
         <v>43467.0</v>
       </c>
-      <c r="CD3" s="36">
+      <c r="CD3" s="35">
         <v>0.75</v>
       </c>
       <c r="CE3" s="22" t="s">
@@ -3145,8 +3139,8 @@
       <c r="CM3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN3" s="32" t="s">
-        <v>143</v>
+      <c r="CN3" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CO3" s="22" t="s">
         <v>121</v>
@@ -3160,14 +3154,14 @@
       <c r="CR3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS3" s="33" t="s">
+      <c r="CS3" s="32" t="s">
         <v>121</v>
       </c>
       <c r="CT3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU3" s="34" t="s">
-        <v>144</v>
+      <c r="CU3" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="CV3" s="14" t="s">
         <v>121</v>
@@ -3199,7 +3193,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
@@ -3220,13 +3214,13 @@
         <v>124</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>128</v>
@@ -3237,10 +3231,10 @@
       <c r="M4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="37">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="37">
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -3253,19 +3247,19 @@
         <v>130</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>121</v>
@@ -3274,13 +3268,13 @@
         <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>135</v>
@@ -3396,16 +3390,16 @@
       <c r="BN4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="BO4" s="35">
+      <c r="BO4" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP4" s="36">
+      <c r="BP4" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ4" s="35">
+      <c r="BQ4" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR4" s="36">
+      <c r="BR4" s="35">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS4" s="19">
@@ -3424,7 +3418,7 @@
         <v>121</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BY4" s="27">
         <v>44927.0</v>
@@ -3471,8 +3465,8 @@
       <c r="CM4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN4" s="32" t="s">
-        <v>143</v>
+      <c r="CN4" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CO4" s="22" t="s">
         <v>121</v>
@@ -3486,14 +3480,14 @@
       <c r="CR4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS4" s="33" t="s">
+      <c r="CS4" s="32" t="s">
         <v>121</v>
       </c>
       <c r="CT4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU4" s="34" t="s">
-        <v>144</v>
+      <c r="CU4" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="CV4" s="14" t="s">
         <v>121</v>
@@ -3525,7 +3519,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
@@ -3546,16 +3540,16 @@
         <v>124</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="K5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>124</v>
@@ -3579,19 +3573,19 @@
         <v>130</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X5" s="22" t="s">
         <v>121</v>
@@ -3600,13 +3594,13 @@
         <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="18" t="s">
         <v>135</v>
@@ -3722,16 +3716,16 @@
       <c r="BN5" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="BO5" s="35">
+      <c r="BO5" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BP5" s="36">
+      <c r="BP5" s="35">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ5" s="35">
+      <c r="BQ5" s="34">
         <v>43466.0</v>
       </c>
-      <c r="BR5" s="36">
+      <c r="BR5" s="35">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS5" s="19">
@@ -3750,7 +3744,7 @@
         <v>121</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BY5" s="27">
         <v>44927.0</v>
@@ -3797,8 +3791,8 @@
       <c r="CM5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CN5" s="32" t="s">
-        <v>143</v>
+      <c r="CN5" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CO5" s="22" t="s">
         <v>121</v>
@@ -3812,14 +3806,14 @@
       <c r="CR5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS5" s="33" t="s">
+      <c r="CS5" s="32" t="s">
         <v>121</v>
       </c>
       <c r="CT5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU5" s="34" t="s">
-        <v>144</v>
+      <c r="CU5" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="CV5" s="14" t="s">
         <v>121</v>
@@ -5294,17 +5288,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>176</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5333,11 +5327,11 @@
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <v>1000.0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>121</v>
@@ -5347,11 +5341,11 @@
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="41">
         <v>2000.0</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>121</v>
@@ -5359,13 +5353,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="42">
+        <v>144</v>
+      </c>
+      <c r="B4" s="41">
         <v>1001.0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>121</v>
@@ -5373,13 +5367,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="42">
+        <v>144</v>
+      </c>
+      <c r="B5" s="41">
         <v>2001.0</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>121</v>
@@ -5387,13 +5381,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="42">
+        <v>155</v>
+      </c>
+      <c r="B6" s="41">
         <v>1002.0</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>121</v>
@@ -5401,13 +5395,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="42">
+        <v>155</v>
+      </c>
+      <c r="B7" s="41">
         <v>2002.0</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>121</v>
@@ -8409,29 +8403,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>189</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -8453,25 +8447,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -11470,10 +11464,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -11501,25 +11495,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="192">
   <si>
     <t>Date</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>$VIDE</t>
   </si>
   <si>
     <t>TNR</t>
@@ -2720,8 +2723,8 @@
       <c r="BH2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="22" t="s">
-        <v>121</v>
+      <c r="BI2" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="BJ2" s="22" t="s">
         <v>129</v>
@@ -2736,7 +2739,7 @@
         <v>129</v>
       </c>
       <c r="BN2" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BO2" s="27">
         <v>44958.0</v>
@@ -2754,19 +2757,19 @@
         <v>1.0</v>
       </c>
       <c r="BT2" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BU2" s="21">
         <v>4.0</v>
       </c>
       <c r="BV2" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW2" s="31" t="s">
         <v>121</v>
       </c>
       <c r="BX2" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BY2" s="27">
         <v>44927.0</v>
@@ -2823,7 +2826,7 @@
         <v>121</v>
       </c>
       <c r="CQ2" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>121</v>
@@ -2835,7 +2838,7 @@
         <v>121</v>
       </c>
       <c r="CU2" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CV2" s="14" t="s">
         <v>121</v>
@@ -2853,10 +2856,10 @@
         <v>121</v>
       </c>
       <c r="DA2" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DB2" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DC2" s="30" t="s">
         <v>138</v>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
@@ -2888,16 +2891,16 @@
         <v>124</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>124</v>
@@ -2921,19 +2924,19 @@
         <v>130</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X3" s="22" t="s">
         <v>121</v>
@@ -2942,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="18" t="s">
         <v>135</v>
@@ -3046,8 +3049,8 @@
       <c r="BH3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI3" s="22" t="s">
-        <v>121</v>
+      <c r="BI3" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="BJ3" s="22" t="s">
         <v>129</v>
@@ -3062,7 +3065,7 @@
         <v>129</v>
       </c>
       <c r="BN3" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BO3" s="34">
         <v>43466.0</v>
@@ -3080,7 +3083,7 @@
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
@@ -3092,7 +3095,7 @@
         <v>121</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BY3" s="34">
         <v>43466.0</v>
@@ -3119,7 +3122,7 @@
         <v>121</v>
       </c>
       <c r="CG3" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CH3" s="22" t="s">
         <v>121</v>
@@ -3161,7 +3164,7 @@
         <v>121</v>
       </c>
       <c r="CU3" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CV3" s="14" t="s">
         <v>121</v>
@@ -3179,10 +3182,10 @@
         <v>121</v>
       </c>
       <c r="DA3" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DB3" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DC3" s="30" t="s">
         <v>138</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
@@ -3214,13 +3217,13 @@
         <v>124</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>128</v>
@@ -3247,19 +3250,19 @@
         <v>130</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>121</v>
@@ -3268,13 +3271,13 @@
         <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>135</v>
@@ -3372,8 +3375,8 @@
       <c r="BH4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI4" s="22" t="s">
-        <v>121</v>
+      <c r="BI4" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="BJ4" s="22" t="s">
         <v>129</v>
@@ -3388,7 +3391,7 @@
         <v>129</v>
       </c>
       <c r="BN4" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BO4" s="34">
         <v>43466.0</v>
@@ -3406,19 +3409,19 @@
         <v>1.0</v>
       </c>
       <c r="BT4" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BU4" s="21">
         <v>4.0</v>
       </c>
       <c r="BV4" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW4" s="31" t="s">
         <v>121</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY4" s="27">
         <v>44927.0</v>
@@ -3475,7 +3478,7 @@
         <v>121</v>
       </c>
       <c r="CQ4" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR4" s="22" t="s">
         <v>121</v>
@@ -3487,7 +3490,7 @@
         <v>121</v>
       </c>
       <c r="CU4" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CV4" s="14" t="s">
         <v>121</v>
@@ -3505,10 +3508,10 @@
         <v>121</v>
       </c>
       <c r="DA4" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DB4" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DC4" s="30" t="s">
         <v>138</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
@@ -3540,16 +3543,16 @@
         <v>124</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>124</v>
@@ -3573,19 +3576,19 @@
         <v>130</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X5" s="22" t="s">
         <v>121</v>
@@ -3594,13 +3597,13 @@
         <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC5" s="18" t="s">
         <v>135</v>
@@ -3698,8 +3701,8 @@
       <c r="BH5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI5" s="22" t="s">
-        <v>121</v>
+      <c r="BI5" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="BJ5" s="22" t="s">
         <v>129</v>
@@ -3714,7 +3717,7 @@
         <v>129</v>
       </c>
       <c r="BN5" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BO5" s="34">
         <v>43466.0</v>
@@ -3732,19 +3735,19 @@
         <v>1.0</v>
       </c>
       <c r="BT5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BU5" s="21">
         <v>4.0</v>
       </c>
       <c r="BV5" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW5" s="31" t="s">
         <v>121</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BY5" s="27">
         <v>44927.0</v>
@@ -3801,7 +3804,7 @@
         <v>121</v>
       </c>
       <c r="CQ5" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR5" s="22" t="s">
         <v>121</v>
@@ -3813,7 +3816,7 @@
         <v>121</v>
       </c>
       <c r="CU5" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CV5" s="14" t="s">
         <v>121</v>
@@ -3831,10 +3834,10 @@
         <v>121</v>
       </c>
       <c r="DA5" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DB5" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="DC5" s="30" t="s">
         <v>138</v>
@@ -5289,16 +5292,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5331,7 +5334,7 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>121</v>
@@ -5345,7 +5348,7 @@
         <v>2000.0</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>121</v>
@@ -5353,13 +5356,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="41">
         <v>1001.0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>121</v>
@@ -5367,13 +5370,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="41">
         <v>2001.0</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>121</v>
@@ -5381,13 +5384,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" s="41">
         <v>1002.0</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>121</v>
@@ -5395,13 +5398,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="41">
         <v>2002.0</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>121</v>
@@ -8404,28 +8407,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -11464,10 +11467,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.TR.BT.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>$SEQUENCEID</t>
   </si>
   <si>
     <t>A</t>
@@ -608,7 +605,7 @@
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -648,6 +645,11 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -765,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -809,7 +811,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -832,8 +834,11 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -847,7 +852,7 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -868,16 +873,16 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2555,29 +2560,30 @@
       <c r="D2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>123</v>
+      <c r="E2" s="18">
+        <f t="shared" ref="E2:E5" si="1">B2</f>
+        <v>1000</v>
       </c>
       <c r="F2" s="19">
         <v>1.0</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>121</v>
@@ -2595,22 +2601,22 @@
         <v>121</v>
       </c>
       <c r="R2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="T2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X2" s="22" t="s">
         <v>121</v>
@@ -2619,30 +2625,30 @@
         <v>121</v>
       </c>
       <c r="Z2" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA2" s="26">
         <v>1.0</v>
       </c>
       <c r="AB2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="28">
         <v>44927.0</v>
       </c>
-      <c r="AE2" s="28">
+      <c r="AE2" s="29">
         <v>0.4895833333333333</v>
       </c>
       <c r="AF2" s="19">
         <v>4.0</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH2" s="27">
+        <v>135</v>
+      </c>
+      <c r="AH2" s="28">
         <v>44958.0</v>
       </c>
       <c r="AI2" s="25">
@@ -2688,105 +2694,105 @@
         <v>121</v>
       </c>
       <c r="AW2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX2" s="27">
+        <v>136</v>
+      </c>
+      <c r="AX2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="AY2" s="28">
+      <c r="AY2" s="29">
         <v>0.6041666666666666</v>
       </c>
-      <c r="AZ2" s="27">
+      <c r="AZ2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BA2" s="28">
+      <c r="BA2" s="29">
         <v>0.7708333333333334</v>
       </c>
-      <c r="BB2" s="27">
+      <c r="BB2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BC2" s="28">
+      <c r="BC2" s="29">
         <v>0.6145833333333334</v>
       </c>
       <c r="BD2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="BF2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BF2" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG2" s="30" t="s">
         <v>121</v>
       </c>
       <c r="BH2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI2" s="31" t="s">
-        <v>139</v>
+      <c r="BI2" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BL2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BN2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO2" s="27">
+        <v>139</v>
+      </c>
+      <c r="BO2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BP2" s="28">
+      <c r="BP2" s="29">
         <v>0.6041666666666666</v>
       </c>
-      <c r="BQ2" s="27">
+      <c r="BQ2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BR2" s="28">
+      <c r="BR2" s="29">
         <v>0.7708333333333334</v>
       </c>
       <c r="BS2" s="19">
         <v>1.0</v>
       </c>
       <c r="BT2" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU2" s="21">
         <v>4.0</v>
       </c>
       <c r="BV2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX2" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="BW2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BY2" s="27">
+      <c r="BY2" s="28">
         <v>44927.0</v>
       </c>
-      <c r="BZ2" s="28">
+      <c r="BZ2" s="29">
         <v>0.5</v>
       </c>
-      <c r="CA2" s="27">
+      <c r="CA2" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CB2" s="28">
+      <c r="CB2" s="29">
         <v>0.375</v>
       </c>
-      <c r="CC2" s="27">
+      <c r="CC2" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CD2" s="28">
+      <c r="CD2" s="29">
         <v>0.7916666666666666</v>
       </c>
       <c r="CE2" s="22" t="s">
@@ -2796,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="CG2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CH2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CI2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CJ2" s="22" t="s">
         <v>121</v>
@@ -2811,7 +2817,7 @@
         <v>121</v>
       </c>
       <c r="CL2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CM2" s="22" t="s">
         <v>121</v>
@@ -2826,19 +2832,19 @@
         <v>121</v>
       </c>
       <c r="CQ2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS2" s="32" t="s">
+      <c r="CS2" s="33" t="s">
         <v>121</v>
       </c>
       <c r="CT2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU2" s="33" t="s">
-        <v>144</v>
+      <c r="CU2" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="CV2" s="14" t="s">
         <v>121</v>
@@ -2852,25 +2858,25 @@
       <c r="CY2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="CZ2" s="22" t="s">
-        <v>121</v>
+      <c r="CZ2" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="DA2" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="DC2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="DD2" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="DC2" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD2" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
@@ -2881,29 +2887,30 @@
       <c r="D3" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>123</v>
+      <c r="E3" s="18">
+        <f t="shared" si="1"/>
+        <v>1001</v>
       </c>
       <c r="F3" s="19">
         <v>1.0</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>149</v>
-      </c>
       <c r="L3" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>121</v>
@@ -2921,22 +2928,22 @@
         <v>121</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X3" s="22" t="s">
         <v>121</v>
@@ -2945,174 +2952,174 @@
         <v>121</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="26">
         <v>1.0</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD3" s="35">
+        <v>43466.0</v>
+      </c>
+      <c r="AE3" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AF3" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="AG3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="34">
-        <v>43466.0</v>
-      </c>
-      <c r="AE3" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="AF3" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="AG3" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="35">
         <v>43466.0</v>
       </c>
       <c r="AI3" s="25">
         <v>0.0</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AJ3" s="37">
         <v>1.0</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AK3" s="37">
         <v>1.0</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AL3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AM3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AN3" s="37">
         <v>500.0</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AO3" s="37">
         <v>500.0</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AP3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AQ3" s="36">
+      <c r="AQ3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AR3" s="36">
+      <c r="AR3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AS3" s="36">
+      <c r="AS3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AT3" s="36">
+      <c r="AT3" s="37">
         <v>1000.0</v>
       </c>
-      <c r="AU3" s="36">
+      <c r="AU3" s="37">
         <v>1000.0</v>
       </c>
       <c r="AV3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="AW3" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX3" s="34">
+        <v>136</v>
+      </c>
+      <c r="AX3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="AY3" s="35">
+      <c r="AY3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BA3" s="35">
+      <c r="BA3" s="36">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BB3" s="34">
+      <c r="BB3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BC3" s="35">
+      <c r="BC3" s="36">
         <v>0.375</v>
       </c>
       <c r="BD3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BE3" s="29" t="s">
+      <c r="BE3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="BF3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG3" s="29" t="s">
+      <c r="BF3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG3" s="30" t="s">
         <v>121</v>
       </c>
       <c r="BH3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI3" s="31" t="s">
-        <v>139</v>
+      <c r="BI3" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="BJ3" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BK3" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BL3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BM3" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BN3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO3" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP3" s="35">
+      <c r="BP3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ3" s="34">
+      <c r="BQ3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR3" s="35">
+      <c r="BR3" s="36">
         <v>0.5416666666666666</v>
       </c>
-      <c r="BS3" s="36">
+      <c r="BS3" s="37">
         <v>2.0</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU3" s="21">
         <v>4.0</v>
       </c>
       <c r="BV3" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW3" s="32" t="s">
         <v>121</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY3" s="34">
+        <v>154</v>
+      </c>
+      <c r="BY3" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BZ3" s="35">
+      <c r="BZ3" s="36">
         <v>0.5</v>
       </c>
-      <c r="CA3" s="34">
+      <c r="CA3" s="35">
         <v>43467.0</v>
       </c>
-      <c r="CB3" s="35">
+      <c r="CB3" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="CC3" s="34">
+      <c r="CC3" s="35">
         <v>43467.0</v>
       </c>
-      <c r="CD3" s="35">
+      <c r="CD3" s="36">
         <v>0.75</v>
       </c>
       <c r="CE3" s="22" t="s">
@@ -3122,13 +3129,13 @@
         <v>121</v>
       </c>
       <c r="CG3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CH3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CI3" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CJ3" s="22" t="s">
         <v>121</v>
@@ -3137,7 +3144,7 @@
         <v>121</v>
       </c>
       <c r="CL3" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CM3" s="22" t="s">
         <v>121</v>
@@ -3152,19 +3159,19 @@
         <v>121</v>
       </c>
       <c r="CQ3" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CR3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS3" s="32" t="s">
+      <c r="CS3" s="33" t="s">
         <v>121</v>
       </c>
       <c r="CT3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU3" s="33" t="s">
-        <v>144</v>
+      <c r="CU3" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="CV3" s="14" t="s">
         <v>121</v>
@@ -3178,25 +3185,25 @@
       <c r="CY3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="CZ3" s="22" t="s">
-        <v>121</v>
+      <c r="CZ3" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="DA3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="DC3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="DD3" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="DC3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD3" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
@@ -3207,37 +3214,38 @@
       <c r="D4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>123</v>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>1002</v>
       </c>
       <c r="F4" s="19">
         <v>1.0</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="K4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="38">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="38">
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -3247,22 +3255,22 @@
         <v>121</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>121</v>
@@ -3271,30 +3279,30 @@
         <v>121</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA4" s="26">
         <v>1.0</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD4" s="27">
+        <v>162</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="28">
         <v>44927.0</v>
       </c>
-      <c r="AE4" s="28">
+      <c r="AE4" s="29">
         <v>0.4895833333333333</v>
       </c>
       <c r="AF4" s="19">
         <v>4.0</v>
       </c>
       <c r="AG4" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" s="27">
+        <v>135</v>
+      </c>
+      <c r="AH4" s="28">
         <v>44958.0</v>
       </c>
       <c r="AI4" s="25">
@@ -3340,105 +3348,105 @@
         <v>121</v>
       </c>
       <c r="AW4" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX4" s="27">
+        <v>136</v>
+      </c>
+      <c r="AX4" s="28">
         <v>44958.0</v>
       </c>
-      <c r="AY4" s="28">
+      <c r="AY4" s="29">
         <v>0.6041666666666666</v>
       </c>
-      <c r="AZ4" s="27">
+      <c r="AZ4" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BA4" s="28">
+      <c r="BA4" s="29">
         <v>0.7708333333333334</v>
       </c>
-      <c r="BB4" s="27">
+      <c r="BB4" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BC4" s="28">
+      <c r="BC4" s="29">
         <v>0.6145833333333334</v>
       </c>
       <c r="BD4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BE4" s="29" t="s">
+      <c r="BE4" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="BF4" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG4" s="29" t="s">
+      <c r="BF4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG4" s="30" t="s">
         <v>121</v>
       </c>
       <c r="BH4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI4" s="31" t="s">
-        <v>139</v>
+      <c r="BI4" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="BJ4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BK4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BL4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BM4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BN4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO4" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO4" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP4" s="35">
+      <c r="BP4" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ4" s="34">
+      <c r="BQ4" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR4" s="35">
+      <c r="BR4" s="36">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS4" s="19">
         <v>1.0</v>
       </c>
       <c r="BT4" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU4" s="21">
         <v>4.0</v>
       </c>
       <c r="BV4" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW4" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW4" s="32" t="s">
         <v>121</v>
       </c>
       <c r="BX4" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY4" s="27">
+        <v>163</v>
+      </c>
+      <c r="BY4" s="28">
         <v>44927.0</v>
       </c>
-      <c r="BZ4" s="28">
+      <c r="BZ4" s="29">
         <v>0.5</v>
       </c>
-      <c r="CA4" s="27">
+      <c r="CA4" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CB4" s="28">
+      <c r="CB4" s="29">
         <v>0.375</v>
       </c>
-      <c r="CC4" s="27">
+      <c r="CC4" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CD4" s="28">
+      <c r="CD4" s="29">
         <v>0.7916666666666666</v>
       </c>
       <c r="CE4" s="22" t="s">
@@ -3448,13 +3456,13 @@
         <v>121</v>
       </c>
       <c r="CG4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CH4" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CI4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CJ4" s="22" t="s">
         <v>121</v>
@@ -3463,7 +3471,7 @@
         <v>121</v>
       </c>
       <c r="CL4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CM4" s="22" t="s">
         <v>121</v>
@@ -3478,19 +3486,19 @@
         <v>121</v>
       </c>
       <c r="CQ4" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS4" s="32" t="s">
+      <c r="CS4" s="33" t="s">
         <v>121</v>
       </c>
       <c r="CT4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU4" s="33" t="s">
-        <v>144</v>
+      <c r="CU4" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="CV4" s="14" t="s">
         <v>121</v>
@@ -3504,25 +3512,25 @@
       <c r="CY4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="CZ4" s="22" t="s">
-        <v>121</v>
+      <c r="CZ4" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="DA4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="DC4" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="DD4" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="DC4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD4" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
@@ -3533,29 +3541,30 @@
       <c r="D5" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>123</v>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>1003</v>
       </c>
       <c r="F5" s="19">
         <v>1.0</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="K5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>121</v>
@@ -3573,22 +3582,22 @@
         <v>121</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X5" s="22" t="s">
         <v>121</v>
@@ -3597,30 +3606,30 @@
         <v>121</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA5" s="26">
         <v>1.0</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD5" s="27">
+        <v>171</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD5" s="28">
         <v>44927.0</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AE5" s="29">
         <v>0.4895833333333333</v>
       </c>
       <c r="AF5" s="19">
         <v>4.0</v>
       </c>
       <c r="AG5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH5" s="27">
+        <v>135</v>
+      </c>
+      <c r="AH5" s="28">
         <v>44958.0</v>
       </c>
       <c r="AI5" s="25">
@@ -3666,105 +3675,105 @@
         <v>121</v>
       </c>
       <c r="AW5" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX5" s="27">
+        <v>136</v>
+      </c>
+      <c r="AX5" s="28">
         <v>44958.0</v>
       </c>
-      <c r="AY5" s="28">
+      <c r="AY5" s="29">
         <v>0.6041666666666666</v>
       </c>
-      <c r="AZ5" s="27">
+      <c r="AZ5" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BA5" s="28">
+      <c r="BA5" s="29">
         <v>0.7708333333333334</v>
       </c>
-      <c r="BB5" s="27">
+      <c r="BB5" s="28">
         <v>44958.0</v>
       </c>
-      <c r="BC5" s="28">
+      <c r="BC5" s="29">
         <v>0.6145833333333334</v>
       </c>
       <c r="BD5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BE5" s="29" t="s">
+      <c r="BE5" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="BF5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG5" s="29" t="s">
+      <c r="BF5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG5" s="30" t="s">
         <v>121</v>
       </c>
       <c r="BH5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BI5" s="31" t="s">
-        <v>139</v>
+      <c r="BI5" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="BJ5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BK5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BL5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="BM5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BN5" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO5" s="34">
+        <v>139</v>
+      </c>
+      <c r="BO5" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BP5" s="35">
+      <c r="BP5" s="36">
         <v>0.3333333333333333</v>
       </c>
-      <c r="BQ5" s="34">
+      <c r="BQ5" s="35">
         <v>43466.0</v>
       </c>
-      <c r="BR5" s="35">
+      <c r="BR5" s="36">
         <v>0.5416666666666666</v>
       </c>
       <c r="BS5" s="19">
         <v>1.0</v>
       </c>
       <c r="BT5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU5" s="21">
         <v>4.0</v>
       </c>
       <c r="BV5" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW5" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW5" s="32" t="s">
         <v>121</v>
       </c>
       <c r="BX5" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="BY5" s="27">
+        <v>172</v>
+      </c>
+      <c r="BY5" s="28">
         <v>44927.0</v>
       </c>
-      <c r="BZ5" s="28">
+      <c r="BZ5" s="29">
         <v>0.5</v>
       </c>
-      <c r="CA5" s="27">
+      <c r="CA5" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CB5" s="28">
+      <c r="CB5" s="29">
         <v>0.375</v>
       </c>
-      <c r="CC5" s="27">
+      <c r="CC5" s="28">
         <v>43832.0</v>
       </c>
-      <c r="CD5" s="28">
+      <c r="CD5" s="29">
         <v>0.7916666666666666</v>
       </c>
       <c r="CE5" s="22" t="s">
@@ -3774,13 +3783,13 @@
         <v>121</v>
       </c>
       <c r="CG5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CH5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="CI5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CJ5" s="22" t="s">
         <v>121</v>
@@ -3789,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="CL5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CM5" s="22" t="s">
         <v>121</v>
@@ -3804,19 +3813,19 @@
         <v>121</v>
       </c>
       <c r="CQ5" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CR5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CS5" s="32" t="s">
+      <c r="CS5" s="33" t="s">
         <v>121</v>
       </c>
       <c r="CT5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="CU5" s="33" t="s">
-        <v>144</v>
+      <c r="CU5" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="CV5" s="14" t="s">
         <v>121</v>
@@ -3830,20 +3839,20 @@
       <c r="CY5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="CZ5" s="22" t="s">
-        <v>121</v>
+      <c r="CZ5" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="DA5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DB5" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="DC5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="DD5" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="DC5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD5" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -5291,17 +5300,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>176</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -5330,13 +5339,13 @@
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="42">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5344,69 +5353,69 @@
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="42">
         <v>2000.0</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="41">
+        <v>144</v>
+      </c>
+      <c r="B4" s="42">
         <v>1001.0</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="41">
+        <v>144</v>
+      </c>
+      <c r="B5" s="42">
         <v>2001.0</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="41">
+        <v>155</v>
+      </c>
+      <c r="B6" s="42">
         <v>1002.0</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="41">
+        <v>155</v>
+      </c>
+      <c r="B7" s="42">
         <v>2002.0</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8406,29 +8415,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>188</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -8450,25 +8459,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -11467,10 +11476,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -11498,25 +11507,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
